--- a/5_Integración con datos de patógenos y enfermedades/Genes_neurological_diseases_with_FC_sorted_all.xlsx
+++ b/5_Integración con datos de patógenos y enfermedades/Genes_neurological_diseases_with_FC_sorted_all.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="27" documentId="11_167D0F555449440E62355476585DCE3A87474D98" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A00DFBB-2CE4-45FE-B6BB-A19ED3296E3C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bacillus subtilis CW14" sheetId="1" r:id="rId1"/>
@@ -458,6 +458,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -748,7 +752,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,7 +1816,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
